--- a/resources/lifeRestart/events.xlsx
+++ b/resources/lifeRestart/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\bots\Tencent-Bot-Kotlin\resources\lifeRestart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BD7C90-B674-462E-946A-4C02987C0DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752F6837-49AA-4B13-B405-59649AF5E930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12532,19 +12532,24 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>你的大姐紫砂了。</t>
-  </si>
-  <si>
-    <t>你的情绪越来越低落，尝试紫砂。</t>
-  </si>
-  <si>
-    <t>你誓死不从，紫砂了。</t>
-  </si>
-  <si>
-    <t>同校有学生跳楼紫砂。被学校压下来了。</t>
-  </si>
-  <si>
-    <t>两位著名人工智能偶像的不正当男女关系被曝光，其中一位删库紫砂了。</t>
+    <t>你的大姐选择了结束生命。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的情绪越来越低落，尝试结束生命。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你誓死不从，选择了结束生命。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>同校有学生跳楼结束生命。被学校压下来了。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>两位著名人工智能偶像的不正当男女关系被曝光，其中一位删库选择了结束生命。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13149,10 +13154,10 @@
   <dimension ref="A1:Q1768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
